--- a/src/main/resources/4926314.xlsx
+++ b/src/main/resources/4926314.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmarscha/Downloads/reader-benchmarks-master/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1646B5A2-31B2-3B49-917D-7062D7793903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B909BB-1AF3-D445-9EC7-16A713D6F34A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="6" xr2:uid="{EE65AE4D-C6B8-9A4F-AAA6-4FEC96D8C2CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="7" xr2:uid="{EE65AE4D-C6B8-9A4F-AAA6-4FEC96D8C2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Before" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="Charsets" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_4926314_after_jmh_result_pruned" localSheetId="1">After!$A$1:$J$76</definedName>
-    <definedName name="_4926314_before_jmh_pruned" localSheetId="0">Before!$A$1:$J$76</definedName>
+    <definedName name="_4926314_after_jmh_result_pruned_1" localSheetId="1">After!$A$1:$J$76</definedName>
+    <definedName name="_4926314_before_jmh_result_pruned" localSheetId="0">Before!$A$1:$J$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{B637178B-3A7C-9B4E-AB50-21A39F1A8161}" name="4926314-after-jmh-result-pruned" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{FB42696F-F5AC-4E48-B256-5B8A168FC9CD}" name="4926314-after-jmh-result-pruned" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="28591" sourceFile="/Users/pmarscha/Downloads/reader-benchmarks-master/src/main/resources/4926314-after-jmh-result-pruned.csv" thousands="'" tab="0" comma="1">
       <textFields count="10">
         <textField/>
@@ -62,8 +62,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{86CF029D-DECB-E849-B9FB-F698784CF469}" name="4926314-before-jmh-pruned" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="28591" sourceFile="/Users/pmarscha/Downloads/reader-benchmarks-master/src/main/resources/4926314-before-jmh-pruned.csv" thousands="'" tab="0" comma="1">
+  <connection id="2" xr16:uid="{E8C5F46B-8A7E-8B47-81D3-D594985E7920}" name="4926314-before-jmh-result-pruned" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="28591" sourceFile="/Users/pmarscha/Downloads/reader-benchmarks-master/src/main/resources/4926314-before-jmh-result-pruned.csv" thousands="'" tab="0" comma="1">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -379,13 +379,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4192.2327850000001</c:v>
+                  <c:v>4133.523177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4190.7351930000004</c:v>
+                  <c:v>4236.9654490000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4588.3958899999998</c:v>
+                  <c:v>4519.8202030000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,13 +445,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4132.711147</c:v>
+                  <c:v>4441.5586789999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4178.2740009999998</c:v>
+                  <c:v>4410.6030129999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4628.8350179999998</c:v>
+                  <c:v>4981.7841660000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,13 +911,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.93372900000000003</c:v>
+                  <c:v>0.89756899999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95836100000000002</c:v>
+                  <c:v>1.1555359999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.220116</c:v>
+                  <c:v>1.1883060000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,13 +977,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.92348799999999998</c:v>
+                  <c:v>1.100468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.506772</c:v>
+                  <c:v>1.1294960000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5558460000000001</c:v>
+                  <c:v>1.5233840000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,13 +1443,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7773.3207519999996</c:v>
+                  <c:v>8011.857763</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9603.1352430000006</c:v>
+                  <c:v>9770.4576259999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10700.516559</c:v>
+                  <c:v>10254.563007999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,13 +1509,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10910.648041</c:v>
+                  <c:v>10682.862836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13768.191564000001</c:v>
+                  <c:v>13629.020643</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14488.760335999999</c:v>
+                  <c:v>14258.637017999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,13 +1975,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>828.57528500000001</c:v>
+                  <c:v>811.13703399999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1743.981706</c:v>
+                  <c:v>1716.2548859999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1791.5436890000001</c:v>
+                  <c:v>1738.764842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,13 +2041,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1127.936508</c:v>
+                  <c:v>1082.6148069999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2725.897782</c:v>
+                  <c:v>2644.3706809999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2795.3809660000002</c:v>
+                  <c:v>2726.432624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,13 +2507,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.98898799999999998</c:v>
+                  <c:v>0.96645099999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1773929999999999</c:v>
+                  <c:v>1.1431819999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2129650000000001</c:v>
+                  <c:v>1.188286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,13 +2573,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.10782</c:v>
+                  <c:v>1.0720240000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4994080000000001</c:v>
+                  <c:v>1.46831</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.404406</c:v>
+                  <c:v>1.7119740000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3039,13 +3039,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7934.0079519999999</c:v>
+                  <c:v>7832.6453149999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9089.3105410000007</c:v>
+                  <c:v>8883.7356949999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8908.6521269999994</c:v>
+                  <c:v>8515.2339940000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,13 +3105,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10183.045795</c:v>
+                  <c:v>9850.5669809999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12091.705583999999</c:v>
+                  <c:v>11774.224635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10800.400675999999</c:v>
+                  <c:v>10951.887622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3581,13 +3581,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1241.7321280000001</c:v>
+                  <c:v>1183.227537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1699.979331</c:v>
+                  <c:v>1662.937195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1622.2104629999999</c:v>
+                  <c:v>1569.8472790000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3647,13 +3647,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1576.0500320000001</c:v>
+                  <c:v>1542.7691809999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2406.0923130000001</c:v>
+                  <c:v>2340.2334540000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2209.648326</c:v>
+                  <c:v>2162.6021599999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4123,13 +4123,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.261547</c:v>
+                  <c:v>1.234167</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.718631</c:v>
+                  <c:v>1.6801459999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4951159999999999</c:v>
+                  <c:v>1.4682770000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4189,13 +4189,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.607138</c:v>
+                  <c:v>1.58117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4753319999999999</c:v>
+                  <c:v>2.4195440000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0408729999999999</c:v>
+                  <c:v>2.0014150000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4659,13 +4659,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6425.012487</c:v>
+                  <c:v>5800.4288070000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7436.0350600000002</c:v>
+                  <c:v>6528.4039460000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6776.6191179999996</c:v>
+                  <c:v>7002.6859320000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4725,13 +4725,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3039.0435659999998</c:v>
+                  <c:v>2993.234915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3118.1113989999999</c:v>
+                  <c:v>3090.0894400000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3270.088827</c:v>
+                  <c:v>2940.8542769999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5201,13 +5201,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>841.90092800000002</c:v>
+                  <c:v>834.85456799999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1297.216664</c:v>
+                  <c:v>1367.043966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1451.3684519999999</c:v>
+                  <c:v>1401.5203059999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5267,13 +5267,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>396.32670200000001</c:v>
+                  <c:v>388.67430400000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>424.65714000000003</c:v>
+                  <c:v>409.99613799999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>410.71406100000002</c:v>
+                  <c:v>390.97441099999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5733,13 +5733,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.87722800000000001</c:v>
+                  <c:v>0.88785899999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94374800000000003</c:v>
+                  <c:v>0.92611500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.194407</c:v>
+                  <c:v>1.1690339999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5799,13 +5799,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.38439099999999998</c:v>
+                  <c:v>0.37304300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41846299999999997</c:v>
+                  <c:v>0.41009099999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37349199999999999</c:v>
+                  <c:v>0.40872000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6259,13 +6259,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.0514039999999998</c:v>
+                  <c:v>3.9439760000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27935.820307999998</c:v>
+                  <c:v>27530.101858000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28216.598719000001</c:v>
+                  <c:v>27588.249299999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6325,13 +6325,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>53.755220999999999</c:v>
+                  <c:v>9.1511820000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76640.037337999995</c:v>
+                  <c:v>75169.214647000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76898.848931999994</c:v>
+                  <c:v>75262.305552000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6791,13 +6791,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6232.4662390000003</c:v>
+                  <c:v>6294.0599670000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7717.3373019999999</c:v>
+                  <c:v>6964.0888400000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7428.4642750000003</c:v>
+                  <c:v>7327.2149300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6857,13 +6857,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3127.91329</c:v>
+                  <c:v>3078.1784710000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3313.8433209999998</c:v>
+                  <c:v>3299.8247200000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3087.0589639999998</c:v>
+                  <c:v>3455.8642239999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7323,13 +7323,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>836.07074799999998</c:v>
+                  <c:v>830.09532899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1499.2113320000001</c:v>
+                  <c:v>1480.602261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1551.9566970000001</c:v>
+                  <c:v>1513.1369440000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7389,13 +7389,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>408.626104</c:v>
+                  <c:v>399.99897600000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>429.55474199999998</c:v>
+                  <c:v>431.66757200000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475.79396400000002</c:v>
+                  <c:v>433.14147800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7855,13 +7855,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.97424900000000003</c:v>
+                  <c:v>0.94400700000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.155707</c:v>
+                  <c:v>1.134417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2731250000000001</c:v>
+                  <c:v>1.1606399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7921,13 +7921,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.40343000000000001</c:v>
+                  <c:v>0.38991599999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42144900000000002</c:v>
+                  <c:v>0.41449599999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44780900000000001</c:v>
+                  <c:v>0.37676799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8387,13 +8387,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6265.4656420000001</c:v>
+                  <c:v>5975.6109059999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6705.7831340000002</c:v>
+                  <c:v>6759.8452989999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6515.4049240000004</c:v>
+                  <c:v>6417.1004999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8453,13 +8453,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3442.3715649999999</c:v>
+                  <c:v>3379.319336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3380.3027470000002</c:v>
+                  <c:v>3351.2192839999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3454.4936010000001</c:v>
+                  <c:v>3483.1853780000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8929,13 +8929,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1119.5561479999999</c:v>
+                  <c:v>1093.098432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1488.7641719999999</c:v>
+                  <c:v>1468.919572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1419.418263</c:v>
+                  <c:v>1393.1796449999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8995,13 +8995,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>445.05146300000001</c:v>
+                  <c:v>439.13207199999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>464.441441</c:v>
+                  <c:v>456.56125600000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>453.98715399999998</c:v>
+                  <c:v>445.23671000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9471,13 +9471,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2310289999999999</c:v>
+                  <c:v>1.2052890000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.664409</c:v>
+                  <c:v>1.633205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.460877</c:v>
+                  <c:v>1.4264889999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9537,13 +9537,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.44334699999999999</c:v>
+                  <c:v>0.43423899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43839699999999998</c:v>
+                  <c:v>0.432006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47221999999999997</c:v>
+                  <c:v>0.46371299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10009,31 +10009,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9898.7565990000003</c:v>
+                  <c:v>9704.8327229999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13033.516439999999</c:v>
+                  <c:v>11029.532383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12726.913707</c:v>
+                  <c:v>13358.335376999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1140.843359</c:v>
+                  <c:v>1113.968298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2436.32089</c:v>
+                  <c:v>2202.8291279999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2384.9378550000001</c:v>
+                  <c:v>2430.290407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92348799999999998</c:v>
+                  <c:v>1.100468</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.506772</c:v>
+                  <c:v>1.1294960000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5558460000000001</c:v>
+                  <c:v>1.5233840000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,31 +10110,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10910.648041</c:v>
+                  <c:v>10682.862836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13768.191564000001</c:v>
+                  <c:v>13629.020643</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14488.760335999999</c:v>
+                  <c:v>14258.637017999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1127.936508</c:v>
+                  <c:v>1082.6148069999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2725.897782</c:v>
+                  <c:v>2644.3706809999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2795.3809660000002</c:v>
+                  <c:v>2726.432624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.10782</c:v>
+                  <c:v>1.0720240000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4994080000000001</c:v>
+                  <c:v>1.46831</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.404406</c:v>
+                  <c:v>1.7119740000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10211,31 +10211,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10183.045795</c:v>
+                  <c:v>9850.5669809999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12091.705583999999</c:v>
+                  <c:v>11774.224635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10800.400675999999</c:v>
+                  <c:v>10951.887622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1576.0500320000001</c:v>
+                  <c:v>1542.7691809999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2406.0923130000001</c:v>
+                  <c:v>2340.2334540000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2209.648326</c:v>
+                  <c:v>2162.6021599999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.607138</c:v>
+                  <c:v>1.58117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4753319999999999</c:v>
+                  <c:v>2.4195440000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0408729999999999</c:v>
+                  <c:v>2.0014150000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10689,13 +10689,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1341.555703</c:v>
+                  <c:v>1312.74011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4601.7085800000004</c:v>
+                  <c:v>4750.1919470000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4623.7864929999996</c:v>
+                  <c:v>4582.6967750000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10755,13 +10755,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9246.0854139999992</c:v>
+                  <c:v>9074.8692780000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31970.677249</c:v>
+                  <c:v>31467.210347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37384.514384000002</c:v>
+                  <c:v>31387.361755000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11215,13 +11215,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.3029999999999999E-3</c:v>
+                  <c:v>3.1900000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6283000000000001E-2</c:v>
+                  <c:v>2.5416000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3850790000000002</c:v>
+                  <c:v>4.2494079999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11281,13 +11281,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.5951090000000008</c:v>
+                  <c:v>9.3821860000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.730474999999998</c:v>
+                  <c:v>16.575046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.937021999999999</c:v>
+                  <c:v>18.432877999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11741,13 +11741,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14983.948764000001</c:v>
+                  <c:v>14864.024683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15100.576370999999</c:v>
+                  <c:v>14822.564037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15109.948847</c:v>
+                  <c:v>14693.610927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11807,13 +11807,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26152.642707999999</c:v>
+                  <c:v>12863.008438999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26181.587877000002</c:v>
+                  <c:v>12827.899955000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26211.324755000001</c:v>
+                  <c:v>12892.50866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12267,13 +12267,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>994.27099299999998</c:v>
+                  <c:v>970.03736600000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3664.7024059999999</c:v>
+                  <c:v>3597.0368859999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3659.6294050000001</c:v>
+                  <c:v>3598.0446999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12333,13 +12333,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4354.0648499999998</c:v>
+                  <c:v>1592.0116680000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5596.9157770000002</c:v>
+                  <c:v>3798.8314319999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5596.8673040000003</c:v>
+                  <c:v>3801.7779569999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12793,13 +12793,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.2859999999999999E-3</c:v>
+                  <c:v>3.1749999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6068999999999998E-2</c:v>
+                  <c:v>2.5257000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0514039999999998</c:v>
+                  <c:v>3.9439760000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12859,13 +12859,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16.394285</c:v>
+                  <c:v>2.2313489999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.612488999999997</c:v>
+                  <c:v>7.024235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.755220999999999</c:v>
+                  <c:v>9.1511820000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13329,13 +13329,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7871.1877240000003</c:v>
+                  <c:v>8240.2437410000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9016.1495680000007</c:v>
+                  <c:v>8586.1679050000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9721.58295</c:v>
+                  <c:v>9984.379766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13395,13 +13395,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9898.7565990000003</c:v>
+                  <c:v>9704.8327229999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13033.516439999999</c:v>
+                  <c:v>11029.532383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12726.913707</c:v>
+                  <c:v>13358.335376999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13871,13 +13871,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>914.71508400000005</c:v>
+                  <c:v>898.75881900000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1595.1993339999999</c:v>
+                  <c:v>1560.5050650000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1623.0882449999999</c:v>
+                  <c:v>1565.021855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13937,13 +13937,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1140.843359</c:v>
+                  <c:v>1113.968298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2436.32089</c:v>
+                  <c:v>2202.8291279999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2384.9378550000001</c:v>
+                  <c:v>2430.290407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29398,11 +29398,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="4926314-before-jmh-pruned" connectionId="2" xr16:uid="{E6E0112A-70AC-4542-B53E-F24C09C66FCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="4926314-before-jmh-result-pruned" connectionId="2" xr16:uid="{13A76358-B91E-2B4A-9F19-5AA2EE9052F1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="4926314-after-jmh-result-pruned" connectionId="1" xr16:uid="{643D59E3-A1BF-1241-AA5B-8980F3C6A277}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="4926314-after-jmh-result-pruned_1" connectionId="1" xr16:uid="{6412457F-386D-CA4B-9951-032BA4704EE1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29704,9 +29704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00183468-25BC-8C48-86D6-0649CA820DE7}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29768,10 +29766,10 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>6425.012487</v>
+        <v>5800.4288070000002</v>
       </c>
       <c r="F2">
-        <v>21.558883999999999</v>
+        <v>182.74885800000001</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -29800,10 +29798,10 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>7436.0350600000002</v>
+        <v>6528.4039460000004</v>
       </c>
       <c r="F3">
-        <v>15.595096</v>
+        <v>103.669872</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -29832,10 +29830,10 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>6776.6191179999996</v>
+        <v>7002.6859320000003</v>
       </c>
       <c r="F4">
-        <v>36.170032999999997</v>
+        <v>93.824876000000003</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -29864,10 +29862,10 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>841.90092800000002</v>
+        <v>834.85456799999997</v>
       </c>
       <c r="F5">
-        <v>3.706032</v>
+        <v>7.211938</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -29896,10 +29894,10 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>1297.216664</v>
+        <v>1367.043966</v>
       </c>
       <c r="F6">
-        <v>4.7843070000000001</v>
+        <v>15.864962</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -29928,10 +29926,10 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>1451.3684519999999</v>
+        <v>1401.5203059999999</v>
       </c>
       <c r="F7">
-        <v>4.3997400000000004</v>
+        <v>18.205591999999999</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -29960,10 +29958,10 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>0.87722800000000001</v>
+        <v>0.88785899999999995</v>
       </c>
       <c r="F8">
-        <v>2.9880000000000002E-3</v>
+        <v>8.482E-3</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -29992,10 +29990,10 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>0.94374800000000003</v>
+        <v>0.92611500000000002</v>
       </c>
       <c r="F9">
-        <v>3.571E-3</v>
+        <v>1.4315E-2</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -30024,10 +30022,10 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>1.194407</v>
+        <v>1.1690339999999999</v>
       </c>
       <c r="F10">
-        <v>3.8089999999999999E-3</v>
+        <v>8.5360000000000002E-3</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -30056,10 +30054,10 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>6232.4662390000003</v>
+        <v>6294.0599670000001</v>
       </c>
       <c r="F11">
-        <v>7.3433630000000001</v>
+        <v>65.490410999999995</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -30088,10 +30086,10 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>7717.3373019999999</v>
+        <v>6964.0888400000003</v>
       </c>
       <c r="F12">
-        <v>11.964937000000001</v>
+        <v>96.373045000000005</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -30120,10 +30118,10 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>7428.4642750000003</v>
+        <v>7327.2149300000001</v>
       </c>
       <c r="F13">
-        <v>17.147257</v>
+        <v>94.628928000000002</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -30152,10 +30150,10 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>836.07074799999998</v>
+        <v>830.09532899999999</v>
       </c>
       <c r="F14">
-        <v>2.7557849999999999</v>
+        <v>4.8797930000000003</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -30184,10 +30182,10 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>1499.2113320000001</v>
+        <v>1480.602261</v>
       </c>
       <c r="F15">
-        <v>5.6723299999999997</v>
+        <v>22.590114</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -30216,10 +30214,10 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>1551.9566970000001</v>
+        <v>1513.1369440000001</v>
       </c>
       <c r="F16">
-        <v>12.71575</v>
+        <v>27.456772999999998</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -30248,10 +30246,10 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>0.97424900000000003</v>
+        <v>0.94400700000000004</v>
       </c>
       <c r="F17">
-        <v>2.7360000000000002E-3</v>
+        <v>1.5720999999999999E-2</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -30280,10 +30278,10 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>1.155707</v>
+        <v>1.134417</v>
       </c>
       <c r="F18">
-        <v>1.864E-3</v>
+        <v>1.4862999999999999E-2</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -30312,10 +30310,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>1.2731250000000001</v>
+        <v>1.1606399999999999</v>
       </c>
       <c r="F19">
-        <v>2.408E-3</v>
+        <v>1.4649000000000001E-2</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -30344,10 +30342,10 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>6265.4656420000001</v>
+        <v>5975.6109059999999</v>
       </c>
       <c r="F20">
-        <v>31.527484000000001</v>
+        <v>95.034672</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -30376,10 +30374,10 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>6705.7831340000002</v>
+        <v>6759.8452989999996</v>
       </c>
       <c r="F21">
-        <v>17.744042</v>
+        <v>138.39325299999999</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -30408,10 +30406,10 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>6515.4049240000004</v>
+        <v>6417.1004999999996</v>
       </c>
       <c r="F22">
-        <v>22.901546</v>
+        <v>48.958897</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -30440,10 +30438,10 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>1119.5561479999999</v>
+        <v>1093.098432</v>
       </c>
       <c r="F23">
-        <v>8.6415150000000001</v>
+        <v>55.566547</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -30472,10 +30470,10 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <v>1488.7641719999999</v>
+        <v>1468.919572</v>
       </c>
       <c r="F24">
-        <v>7.2296529999999999</v>
+        <v>27.131865999999999</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -30504,10 +30502,10 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>1419.418263</v>
+        <v>1393.1796449999999</v>
       </c>
       <c r="F25">
-        <v>5.9139860000000004</v>
+        <v>8.9885400000000004</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -30536,10 +30534,10 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>1.2310289999999999</v>
+        <v>1.2052890000000001</v>
       </c>
       <c r="F26">
-        <v>6.6059999999999999E-3</v>
+        <v>5.1539999999999997E-3</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -30568,10 +30566,10 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <v>1.664409</v>
+        <v>1.633205</v>
       </c>
       <c r="F27">
-        <v>7.9019999999999993E-3</v>
+        <v>1.2460000000000001E-2</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -30600,10 +30598,10 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>1.460877</v>
+        <v>1.4264889999999999</v>
       </c>
       <c r="F28">
-        <v>5.2319999999999997E-3</v>
+        <v>1.0749999999999999E-2</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -30632,10 +30630,10 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>7871.1877240000003</v>
+        <v>8240.2437410000002</v>
       </c>
       <c r="F29">
-        <v>15.130494000000001</v>
+        <v>177.014049</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -30664,10 +30662,10 @@
         <v>5</v>
       </c>
       <c r="E30">
-        <v>9016.1495680000007</v>
+        <v>8586.1679050000002</v>
       </c>
       <c r="F30">
-        <v>36.267467000000003</v>
+        <v>65.723286999999999</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -30696,10 +30694,10 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>9721.58295</v>
+        <v>9984.379766</v>
       </c>
       <c r="F31">
-        <v>25.252524000000001</v>
+        <v>59.42089</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -30728,10 +30726,10 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>914.71508400000005</v>
+        <v>898.75881900000002</v>
       </c>
       <c r="F32">
-        <v>3.193416</v>
+        <v>7.3259280000000002</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -30760,10 +30758,10 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>1595.1993339999999</v>
+        <v>1560.5050650000001</v>
       </c>
       <c r="F33">
-        <v>8.1147200000000002</v>
+        <v>32.052059999999997</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -30792,10 +30790,10 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <v>1623.0882449999999</v>
+        <v>1565.021855</v>
       </c>
       <c r="F34">
-        <v>8.1205180000000006</v>
+        <v>12.525181999999999</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -30824,10 +30822,10 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>0.93372900000000003</v>
+        <v>0.89756899999999995</v>
       </c>
       <c r="F35">
-        <v>1.284E-3</v>
+        <v>6.6499999999999997E-3</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -30856,10 +30854,10 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>0.95836100000000002</v>
+        <v>1.1555359999999999</v>
       </c>
       <c r="F36">
-        <v>4.6699999999999997E-3</v>
+        <v>1.5219999999999999E-2</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -30888,10 +30886,10 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>1.220116</v>
+        <v>1.1883060000000001</v>
       </c>
       <c r="F37">
-        <v>2.0669999999999998E-3</v>
+        <v>1.1350000000000001E-2</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -30920,10 +30918,10 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>7773.3207519999996</v>
+        <v>8011.857763</v>
       </c>
       <c r="F38">
-        <v>13.225384999999999</v>
+        <v>89.760756000000001</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -30952,10 +30950,10 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>9603.1352430000006</v>
+        <v>9770.4576259999994</v>
       </c>
       <c r="F39">
-        <v>69.420957999999999</v>
+        <v>67.487253999999993</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -30984,10 +30982,10 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>10700.516559</v>
+        <v>10254.563007999999</v>
       </c>
       <c r="F40">
-        <v>20.331325</v>
+        <v>247.11632299999999</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -31016,10 +31014,10 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <v>828.57528500000001</v>
+        <v>811.13703399999997</v>
       </c>
       <c r="F41">
-        <v>3.597378</v>
+        <v>13.033830999999999</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -31048,10 +31046,10 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>1743.981706</v>
+        <v>1716.2548859999999</v>
       </c>
       <c r="F42">
-        <v>3.1073270000000002</v>
+        <v>17.472756</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -31080,10 +31078,10 @@
         <v>5</v>
       </c>
       <c r="E43">
-        <v>1791.5436890000001</v>
+        <v>1738.764842</v>
       </c>
       <c r="F43">
-        <v>8.9299850000000003</v>
+        <v>20.597923000000002</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -31112,10 +31110,10 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>0.98898799999999998</v>
+        <v>0.96645099999999995</v>
       </c>
       <c r="F44">
-        <v>4.4900000000000001E-3</v>
+        <v>1.2493000000000001E-2</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -31144,10 +31142,10 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <v>1.1773929999999999</v>
+        <v>1.1431819999999999</v>
       </c>
       <c r="F45">
-        <v>3.2929999999999999E-3</v>
+        <v>2.1073999999999999E-2</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -31176,10 +31174,10 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>1.2129650000000001</v>
+        <v>1.188286</v>
       </c>
       <c r="F46">
-        <v>8.5009999999999999E-3</v>
+        <v>9.4190000000000003E-3</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -31208,10 +31206,10 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>7934.0079519999999</v>
+        <v>7832.6453149999998</v>
       </c>
       <c r="F47">
-        <v>15.595578</v>
+        <v>85.353319999999997</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -31240,10 +31238,10 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>9089.3105410000007</v>
+        <v>8883.7356949999994</v>
       </c>
       <c r="F48">
-        <v>32.431818</v>
+        <v>60.336542000000001</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -31272,10 +31270,10 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>8908.6521269999994</v>
+        <v>8515.2339940000002</v>
       </c>
       <c r="F49">
-        <v>46.500399999999999</v>
+        <v>40.718989000000001</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -31304,10 +31302,10 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <v>1241.7321280000001</v>
+        <v>1183.227537</v>
       </c>
       <c r="F50">
-        <v>3.0224570000000002</v>
+        <v>12.691359</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -31336,10 +31334,10 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>1699.979331</v>
+        <v>1662.937195</v>
       </c>
       <c r="F51">
-        <v>7.2804010000000003</v>
+        <v>48.214421000000002</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -31368,10 +31366,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>1622.2104629999999</v>
+        <v>1569.8472790000001</v>
       </c>
       <c r="F52">
-        <v>5.2624579999999996</v>
+        <v>7.4580250000000001</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -31400,10 +31398,10 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <v>1.261547</v>
+        <v>1.234167</v>
       </c>
       <c r="F53">
-        <v>3.228E-3</v>
+        <v>7.9419999999999994E-3</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -31432,10 +31430,10 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <v>1.718631</v>
+        <v>1.6801459999999999</v>
       </c>
       <c r="F54">
-        <v>8.2920000000000008E-3</v>
+        <v>6.5370000000000003E-3</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
@@ -31464,10 +31462,10 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <v>1.4951159999999999</v>
+        <v>1.4682770000000001</v>
       </c>
       <c r="F55">
-        <v>4.3229999999999996E-3</v>
+        <v>1.5087E-2</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -31496,10 +31494,10 @@
         <v>5</v>
       </c>
       <c r="E56">
-        <v>14983.948764000001</v>
+        <v>14864.024683</v>
       </c>
       <c r="F56">
-        <v>225.37640200000001</v>
+        <v>91.826106999999993</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -31525,10 +31523,10 @@
         <v>5</v>
       </c>
       <c r="E57">
-        <v>15100.576370999999</v>
+        <v>14822.564037</v>
       </c>
       <c r="F57">
-        <v>24.489771999999999</v>
+        <v>126.558649</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
@@ -31554,10 +31552,10 @@
         <v>5</v>
       </c>
       <c r="E58">
-        <v>15109.948847</v>
+        <v>14693.610927</v>
       </c>
       <c r="F58">
-        <v>20.311558000000002</v>
+        <v>740.26393800000005</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -31583,10 +31581,10 @@
         <v>5</v>
       </c>
       <c r="E59">
-        <v>994.27099299999998</v>
+        <v>970.03736600000002</v>
       </c>
       <c r="F59">
-        <v>12.848601</v>
+        <v>9.1423220000000001</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -31612,10 +31610,10 @@
         <v>5</v>
       </c>
       <c r="E60">
-        <v>3664.7024059999999</v>
+        <v>3597.0368859999999</v>
       </c>
       <c r="F60">
-        <v>4.1880689999999996</v>
+        <v>24.466242999999999</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
@@ -31641,10 +31639,10 @@
         <v>5</v>
       </c>
       <c r="E61">
-        <v>3659.6294050000001</v>
+        <v>3598.0446999999999</v>
       </c>
       <c r="F61">
-        <v>11.194487000000001</v>
+        <v>41.400311000000002</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
@@ -31670,10 +31668,10 @@
         <v>5</v>
       </c>
       <c r="E62">
-        <v>3.2859999999999999E-3</v>
+        <v>3.1749999999999999E-3</v>
       </c>
       <c r="F62">
-        <v>1.7E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
@@ -31699,10 +31697,10 @@
         <v>5</v>
       </c>
       <c r="E63">
-        <v>2.6068999999999998E-2</v>
+        <v>2.5257000000000002E-2</v>
       </c>
       <c r="F63">
-        <v>2.8699999999999998E-4</v>
+        <v>2.6899999999999998E-4</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -31728,10 +31726,10 @@
         <v>5</v>
       </c>
       <c r="E64">
-        <v>4.0514039999999998</v>
+        <v>3.9439760000000001</v>
       </c>
       <c r="F64">
-        <v>3.4383999999999998E-2</v>
+        <v>3.7689E-2</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
@@ -31757,10 +31755,10 @@
         <v>5</v>
       </c>
       <c r="E65">
-        <v>27935.820307999998</v>
+        <v>27530.101858000002</v>
       </c>
       <c r="F65">
-        <v>130.84236899999999</v>
+        <v>249.46340499999999</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
@@ -31786,10 +31784,10 @@
         <v>5</v>
       </c>
       <c r="E66">
-        <v>28216.598719000001</v>
+        <v>27588.249299999999</v>
       </c>
       <c r="F66">
-        <v>61.391638</v>
+        <v>129.564289</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
@@ -31815,10 +31813,10 @@
         <v>5</v>
       </c>
       <c r="E67">
-        <v>28163.525578000001</v>
+        <v>27766.786064</v>
       </c>
       <c r="F67">
-        <v>111.663602</v>
+        <v>273.02219100000002</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
@@ -31844,10 +31842,10 @@
         <v>5</v>
       </c>
       <c r="E68">
-        <v>1341.555703</v>
+        <v>1312.74011</v>
       </c>
       <c r="F68">
-        <v>6.1407959999999999</v>
+        <v>18.479624000000001</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
@@ -31873,10 +31871,10 @@
         <v>5</v>
       </c>
       <c r="E69">
-        <v>4601.7085800000004</v>
+        <v>4750.1919470000003</v>
       </c>
       <c r="F69">
-        <v>42.353644000000003</v>
+        <v>308.23318399999999</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -31902,10 +31900,10 @@
         <v>5</v>
       </c>
       <c r="E70">
-        <v>4623.7864929999996</v>
+        <v>4582.6967750000003</v>
       </c>
       <c r="F70">
-        <v>27.276108000000001</v>
+        <v>21.375108999999998</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -31931,10 +31929,10 @@
         <v>5</v>
       </c>
       <c r="E71">
-        <v>3.3029999999999999E-3</v>
+        <v>3.1900000000000001E-3</v>
       </c>
       <c r="F71">
-        <v>3.6000000000000001E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -31960,10 +31958,10 @@
         <v>5</v>
       </c>
       <c r="E72">
-        <v>2.6283000000000001E-2</v>
+        <v>2.5416000000000001E-2</v>
       </c>
       <c r="F72">
-        <v>2.81E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
@@ -31989,10 +31987,10 @@
         <v>5</v>
       </c>
       <c r="E73">
-        <v>4.3850790000000002</v>
+        <v>4.2494079999999999</v>
       </c>
       <c r="F73">
-        <v>3.0691E-2</v>
+        <v>9.6310000000000007E-2</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
@@ -32018,10 +32016,10 @@
         <v>5</v>
       </c>
       <c r="E74">
-        <v>4192.2327850000001</v>
+        <v>4133.523177</v>
       </c>
       <c r="F74">
-        <v>10.073034</v>
+        <v>13.83413</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -32044,10 +32042,10 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <v>4190.7351930000004</v>
+        <v>4236.9654490000003</v>
       </c>
       <c r="F75">
-        <v>17.896165</v>
+        <v>33.967717999999998</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
@@ -32070,10 +32068,10 @@
         <v>5</v>
       </c>
       <c r="E76">
-        <v>4588.3958899999998</v>
+        <v>4519.8202030000002</v>
       </c>
       <c r="F76">
-        <v>8.992559</v>
+        <v>47.449559000000001</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
@@ -32091,9 +32089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903D30D9-912D-F640-897A-2B3A0D1EC5E6}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -32155,10 +32151,10 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>3039.0435659999998</v>
+        <v>2993.234915</v>
       </c>
       <c r="F2">
-        <v>5.4425509999999999</v>
+        <v>44.475459000000001</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -32187,10 +32183,10 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>3118.1113989999999</v>
+        <v>3090.0894400000002</v>
       </c>
       <c r="F3">
-        <v>1.1044689999999999</v>
+        <v>15.811332999999999</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -32219,10 +32215,10 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>3270.088827</v>
+        <v>2940.8542769999999</v>
       </c>
       <c r="F4">
-        <v>6.665635</v>
+        <v>14.232397000000001</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -32251,10 +32247,10 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>396.32670200000001</v>
+        <v>388.67430400000001</v>
       </c>
       <c r="F5">
-        <v>0.64349000000000001</v>
+        <v>4.677047</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -32283,10 +32279,10 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>424.65714000000003</v>
+        <v>409.99613799999997</v>
       </c>
       <c r="F6">
-        <v>0.58244099999999999</v>
+        <v>6.490837</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -32315,10 +32311,10 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>410.71406100000002</v>
+        <v>390.97441099999998</v>
       </c>
       <c r="F7">
-        <v>0.408302</v>
+        <v>4.8217670000000004</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -32347,10 +32343,10 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>0.38439099999999998</v>
+        <v>0.37304300000000001</v>
       </c>
       <c r="F8">
-        <v>6.7699999999999998E-4</v>
+        <v>4.176E-3</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -32379,10 +32375,10 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>0.41846299999999997</v>
+        <v>0.41009099999999998</v>
       </c>
       <c r="F9">
-        <v>9.7199999999999999E-4</v>
+        <v>2.885E-3</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -32411,10 +32407,10 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>0.37349199999999999</v>
+        <v>0.40872000000000003</v>
       </c>
       <c r="F10">
-        <v>3.0499999999999999E-4</v>
+        <v>2.4429999999999999E-3</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -32443,10 +32439,10 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>3127.91329</v>
+        <v>3078.1784710000002</v>
       </c>
       <c r="F11">
-        <v>3.508569</v>
+        <v>61.563937000000003</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -32475,10 +32471,10 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>3313.8433209999998</v>
+        <v>3299.8247200000001</v>
       </c>
       <c r="F12">
-        <v>6.7135720000000001</v>
+        <v>57.503441000000002</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -32507,10 +32503,10 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>3087.0589639999998</v>
+        <v>3455.8642239999999</v>
       </c>
       <c r="F13">
-        <v>4.326803</v>
+        <v>45.706477</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -32539,10 +32535,10 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>408.626104</v>
+        <v>399.99897600000003</v>
       </c>
       <c r="F14">
-        <v>0.38033</v>
+        <v>4.2463179999999996</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -32571,10 +32567,10 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>429.55474199999998</v>
+        <v>431.66757200000001</v>
       </c>
       <c r="F15">
-        <v>1.0985100000000001</v>
+        <v>7.3599680000000003</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -32603,10 +32599,10 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>475.79396400000002</v>
+        <v>433.14147800000001</v>
       </c>
       <c r="F16">
-        <v>0.48865999999999998</v>
+        <v>0.83489899999999995</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -32635,10 +32631,10 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>0.40343000000000001</v>
+        <v>0.38991599999999998</v>
       </c>
       <c r="F17">
-        <v>3.4200000000000002E-4</v>
+        <v>5.1539999999999997E-3</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -32667,10 +32663,10 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>0.42144900000000002</v>
+        <v>0.41449599999999998</v>
       </c>
       <c r="F18">
-        <v>3.57E-4</v>
+        <v>7.3359999999999996E-3</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -32699,10 +32695,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>0.44780900000000001</v>
+        <v>0.37676799999999999</v>
       </c>
       <c r="F19">
-        <v>3.4099999999999999E-4</v>
+        <v>4.9040000000000004E-3</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -32731,10 +32727,10 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>3442.3715649999999</v>
+        <v>3379.319336</v>
       </c>
       <c r="F20">
-        <v>4.0102690000000001</v>
+        <v>28.133998999999999</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -32763,10 +32759,10 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>3380.3027470000002</v>
+        <v>3351.2192839999998</v>
       </c>
       <c r="F21">
-        <v>2.2575090000000002</v>
+        <v>58.561658999999999</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -32795,10 +32791,10 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>3454.4936010000001</v>
+        <v>3483.1853780000001</v>
       </c>
       <c r="F22">
-        <v>10.952211</v>
+        <v>37.276592999999998</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -32827,10 +32823,10 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>445.05146300000001</v>
+        <v>439.13207199999999</v>
       </c>
       <c r="F23">
-        <v>2.6701589999999999</v>
+        <v>3.8200310000000002</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -32859,10 +32855,10 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <v>464.441441</v>
+        <v>456.56125600000001</v>
       </c>
       <c r="F24">
-        <v>0.44537100000000002</v>
+        <v>5.7835650000000003</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -32891,10 +32887,10 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>453.98715399999998</v>
+        <v>445.23671000000002</v>
       </c>
       <c r="F25">
-        <v>0.88606799999999997</v>
+        <v>2.1059169999999998</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -32923,10 +32919,10 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>0.44334699999999999</v>
+        <v>0.43423899999999999</v>
       </c>
       <c r="F26">
-        <v>1.438E-3</v>
+        <v>6.9930000000000001E-3</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -32955,10 +32951,10 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <v>0.43839699999999998</v>
+        <v>0.432006</v>
       </c>
       <c r="F27">
-        <v>9.1500000000000001E-4</v>
+        <v>3.0100000000000001E-3</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -32987,10 +32983,10 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>0.47221999999999997</v>
+        <v>0.46371299999999999</v>
       </c>
       <c r="F28">
-        <v>4.2700000000000002E-4</v>
+        <v>6.3590000000000001E-3</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -33019,10 +33015,10 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>9898.7565990000003</v>
+        <v>9704.8327229999995</v>
       </c>
       <c r="F29">
-        <v>16.661940999999999</v>
+        <v>73.331283999999997</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -33051,10 +33047,10 @@
         <v>5</v>
       </c>
       <c r="E30">
-        <v>13033.516439999999</v>
+        <v>11029.532383</v>
       </c>
       <c r="F30">
-        <v>14.59939</v>
+        <v>117.70650500000001</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -33083,10 +33079,10 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>12726.913707</v>
+        <v>13358.335376999999</v>
       </c>
       <c r="F31">
-        <v>18.486982000000001</v>
+        <v>101.84856600000001</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -33115,10 +33111,10 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>1140.843359</v>
+        <v>1113.968298</v>
       </c>
       <c r="F32">
-        <v>3.1970679999999998</v>
+        <v>12.062383000000001</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -33147,10 +33143,10 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>2436.32089</v>
+        <v>2202.8291279999999</v>
       </c>
       <c r="F33">
-        <v>4.2507239999999999</v>
+        <v>20.937016</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -33179,10 +33175,10 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <v>2384.9378550000001</v>
+        <v>2430.290407</v>
       </c>
       <c r="F34">
-        <v>4.0721309999999997</v>
+        <v>31.623709999999999</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -33211,10 +33207,10 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>0.92348799999999998</v>
+        <v>1.100468</v>
       </c>
       <c r="F35">
-        <v>2.0530000000000001E-3</v>
+        <v>1.1619000000000001E-2</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -33243,10 +33239,10 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>1.506772</v>
+        <v>1.1294960000000001</v>
       </c>
       <c r="F36">
-        <v>2.836E-3</v>
+        <v>1.6594000000000001E-2</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -33275,10 +33271,10 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>1.5558460000000001</v>
+        <v>1.5233840000000001</v>
       </c>
       <c r="F37">
-        <v>3.5530000000000002E-3</v>
+        <v>1.7592E-2</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -33307,10 +33303,10 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>10910.648041</v>
+        <v>10682.862836</v>
       </c>
       <c r="F38">
-        <v>33.405205000000002</v>
+        <v>74.738040999999996</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -33339,10 +33335,10 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>13768.191564000001</v>
+        <v>13629.020643</v>
       </c>
       <c r="F39">
-        <v>17.304879</v>
+        <v>210.890019</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -33371,10 +33367,10 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>14488.760335999999</v>
+        <v>14258.637017999999</v>
       </c>
       <c r="F40">
-        <v>21.357903</v>
+        <v>335.70134200000001</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -33403,10 +33399,10 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <v>1127.936508</v>
+        <v>1082.6148069999999</v>
       </c>
       <c r="F41">
-        <v>1.541288</v>
+        <v>11.902582000000001</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -33435,10 +33431,10 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>2725.897782</v>
+        <v>2644.3706809999999</v>
       </c>
       <c r="F42">
-        <v>4.6830860000000003</v>
+        <v>29.607886000000001</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -33467,10 +33463,10 @@
         <v>5</v>
       </c>
       <c r="E43">
-        <v>2795.3809660000002</v>
+        <v>2726.432624</v>
       </c>
       <c r="F43">
-        <v>4.0934410000000003</v>
+        <v>27.445291000000001</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -33499,10 +33495,10 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>1.10782</v>
+        <v>1.0720240000000001</v>
       </c>
       <c r="F44">
-        <v>3.016E-3</v>
+        <v>1.3587E-2</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -33531,10 +33527,10 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <v>1.4994080000000001</v>
+        <v>1.46831</v>
       </c>
       <c r="F45">
-        <v>2.9759999999999999E-3</v>
+        <v>2.3375E-2</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -33563,10 +33559,10 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>1.404406</v>
+        <v>1.7119740000000001</v>
       </c>
       <c r="F46">
-        <v>4.1099999999999999E-3</v>
+        <v>2.0587999999999999E-2</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -33595,10 +33591,10 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>10183.045795</v>
+        <v>9850.5669809999999</v>
       </c>
       <c r="F47">
-        <v>20.222318999999999</v>
+        <v>118.01924099999999</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -33627,10 +33623,10 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>12091.705583999999</v>
+        <v>11774.224635</v>
       </c>
       <c r="F48">
-        <v>28.347556000000001</v>
+        <v>265.20545099999998</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -33659,10 +33655,10 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>10800.400675999999</v>
+        <v>10951.887622</v>
       </c>
       <c r="F49">
-        <v>58.816592999999997</v>
+        <v>145.191283</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -33691,10 +33687,10 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <v>1576.0500320000001</v>
+        <v>1542.7691809999999</v>
       </c>
       <c r="F50">
-        <v>4.7654209999999999</v>
+        <v>24.742899999999999</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -33723,10 +33719,10 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>2406.0923130000001</v>
+        <v>2340.2334540000002</v>
       </c>
       <c r="F51">
-        <v>4.771242</v>
+        <v>35.442565999999999</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -33755,10 +33751,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>2209.648326</v>
+        <v>2162.6021599999999</v>
       </c>
       <c r="F52">
-        <v>4.3029500000000001</v>
+        <v>39.563814999999998</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -33787,10 +33783,10 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <v>1.607138</v>
+        <v>1.58117</v>
       </c>
       <c r="F53">
-        <v>5.7829999999999999E-3</v>
+        <v>2.58E-2</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -33819,10 +33815,10 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <v>2.4753319999999999</v>
+        <v>2.4195440000000001</v>
       </c>
       <c r="F54">
-        <v>5.2230000000000002E-3</v>
+        <v>4.8680000000000001E-2</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
@@ -33851,10 +33847,10 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <v>2.0408729999999999</v>
+        <v>2.0014150000000002</v>
       </c>
       <c r="F55">
-        <v>8.1460000000000005E-3</v>
+        <v>3.0176999999999999E-2</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -33883,10 +33879,10 @@
         <v>5</v>
       </c>
       <c r="E56">
-        <v>26152.642707999999</v>
+        <v>12863.008438999999</v>
       </c>
       <c r="F56">
-        <v>89.842438999999999</v>
+        <v>42.533557000000002</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -33912,10 +33908,10 @@
         <v>5</v>
       </c>
       <c r="E57">
-        <v>26181.587877000002</v>
+        <v>12827.899955000001</v>
       </c>
       <c r="F57">
-        <v>177.46881500000001</v>
+        <v>138.495068</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
@@ -33941,10 +33937,10 @@
         <v>5</v>
       </c>
       <c r="E58">
-        <v>26211.324755000001</v>
+        <v>12892.50866</v>
       </c>
       <c r="F58">
-        <v>83.364154999999997</v>
+        <v>46.187533999999999</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -33970,10 +33966,10 @@
         <v>5</v>
       </c>
       <c r="E59">
-        <v>4354.0648499999998</v>
+        <v>1592.0116680000001</v>
       </c>
       <c r="F59">
-        <v>67.551792000000006</v>
+        <v>224.85351600000001</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -33999,10 +33995,10 @@
         <v>5</v>
       </c>
       <c r="E60">
-        <v>5596.9157770000002</v>
+        <v>3798.8314319999999</v>
       </c>
       <c r="F60">
-        <v>39.027735999999997</v>
+        <v>31.986934999999999</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
@@ -34028,10 +34024,10 @@
         <v>5</v>
       </c>
       <c r="E61">
-        <v>5596.8673040000003</v>
+        <v>3801.7779569999998</v>
       </c>
       <c r="F61">
-        <v>184.33513300000001</v>
+        <v>19.888793</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
@@ -34057,10 +34053,10 @@
         <v>5</v>
       </c>
       <c r="E62">
-        <v>16.394285</v>
+        <v>2.2313489999999998</v>
       </c>
       <c r="F62">
-        <v>7.8120999999999996E-2</v>
+        <v>4.0689000000000003E-2</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
@@ -34086,10 +34082,10 @@
         <v>5</v>
       </c>
       <c r="E63">
-        <v>44.612488999999997</v>
+        <v>7.024235</v>
       </c>
       <c r="F63">
-        <v>4.2041000000000002E-2</v>
+        <v>3.0870999999999999E-2</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -34115,10 +34111,10 @@
         <v>5</v>
       </c>
       <c r="E64">
-        <v>53.755220999999999</v>
+        <v>9.1511820000000004</v>
       </c>
       <c r="F64">
-        <v>0.135438</v>
+        <v>9.3811000000000005E-2</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
@@ -34144,10 +34140,10 @@
         <v>5</v>
       </c>
       <c r="E65">
-        <v>76640.037337999995</v>
+        <v>75169.214647000001</v>
       </c>
       <c r="F65">
-        <v>424.41907900000001</v>
+        <v>814.494055</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
@@ -34173,10 +34169,10 @@
         <v>5</v>
       </c>
       <c r="E66">
-        <v>76898.848931999994</v>
+        <v>75262.305552000005</v>
       </c>
       <c r="F66">
-        <v>253.006666</v>
+        <v>599.83413900000005</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
@@ -34202,10 +34198,10 @@
         <v>5</v>
       </c>
       <c r="E67">
-        <v>76556.463927999997</v>
+        <v>75760.824173000001</v>
       </c>
       <c r="F67">
-        <v>851.65078200000005</v>
+        <v>917.99537699999996</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
@@ -34231,10 +34227,10 @@
         <v>5</v>
       </c>
       <c r="E68">
-        <v>9246.0854139999992</v>
+        <v>9074.8692780000001</v>
       </c>
       <c r="F68">
-        <v>9.0285550000000008</v>
+        <v>85.386482000000001</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
@@ -34260,10 +34256,10 @@
         <v>5</v>
       </c>
       <c r="E69">
-        <v>31970.677249</v>
+        <v>31467.210347</v>
       </c>
       <c r="F69">
-        <v>248.11206200000001</v>
+        <v>253.367875</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -34289,10 +34285,10 @@
         <v>5</v>
       </c>
       <c r="E70">
-        <v>37384.514384000002</v>
+        <v>31387.361755000002</v>
       </c>
       <c r="F70">
-        <v>165.561971</v>
+        <v>194.350596</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -34318,10 +34314,10 @@
         <v>5</v>
       </c>
       <c r="E71">
-        <v>9.5951090000000008</v>
+        <v>9.3821860000000008</v>
       </c>
       <c r="F71">
-        <v>1.2749999999999999E-2</v>
+        <v>0.113161</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -34347,10 +34343,10 @@
         <v>5</v>
       </c>
       <c r="E72">
-        <v>16.730474999999998</v>
+        <v>16.575046</v>
       </c>
       <c r="F72">
-        <v>1.4723E-2</v>
+        <v>0.1827</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
@@ -34376,10 +34372,10 @@
         <v>5</v>
       </c>
       <c r="E73">
-        <v>18.937021999999999</v>
+        <v>18.432877999999999</v>
       </c>
       <c r="F73">
-        <v>2.4063000000000001E-2</v>
+        <v>0.149398</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
@@ -34405,10 +34401,10 @@
         <v>5</v>
       </c>
       <c r="E74">
-        <v>4132.711147</v>
+        <v>4441.5586789999998</v>
       </c>
       <c r="F74">
-        <v>11.085298999999999</v>
+        <v>67.808047999999999</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -34431,10 +34427,10 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <v>4178.2740009999998</v>
+        <v>4410.6030129999999</v>
       </c>
       <c r="F75">
-        <v>4.5831879999999998</v>
+        <v>46.854664</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
@@ -34457,10 +34453,10 @@
         <v>5</v>
       </c>
       <c r="E76">
-        <v>4628.8350179999998</v>
+        <v>4981.7841660000004</v>
       </c>
       <c r="F76">
-        <v>23.854586000000001</v>
+        <v>39.878847999999998</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
@@ -34505,11 +34501,11 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2:B4">Before!E74:E76</f>
-        <v>4192.2327850000001</v>
+        <v>4133.523177</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2:C4">After!E74:E76</f>
-        <v>4132.711147</v>
+        <v>4441.5586789999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -34517,10 +34513,10 @@
         <v>1024</v>
       </c>
       <c r="B3">
-        <v>4190.7351930000004</v>
+        <v>4236.9654490000003</v>
       </c>
       <c r="C3">
-        <v>4178.2740009999998</v>
+        <v>4410.6030129999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -34528,10 +34524,10 @@
         <v>1048576</v>
       </c>
       <c r="B4">
-        <v>4588.3958899999998</v>
+        <v>4519.8202030000002</v>
       </c>
       <c r="C4">
-        <v>4628.8350179999998</v>
+        <v>4981.7841660000004</v>
       </c>
     </row>
   </sheetData>
@@ -34570,11 +34566,11 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2:B4">Before!E64:E66</f>
-        <v>4.0514039999999998</v>
+        <v>3.9439760000000001</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2:C4">After!E64:E66</f>
-        <v>53.755220999999999</v>
+        <v>9.1511820000000004</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -34582,10 +34578,10 @@
         <v>1024</v>
       </c>
       <c r="B3">
-        <v>27935.820307999998</v>
+        <v>27530.101858000002</v>
       </c>
       <c r="C3">
-        <v>76640.037337999995</v>
+        <v>75169.214647000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -34593,10 +34589,10 @@
         <v>1048576</v>
       </c>
       <c r="B4">
-        <v>28216.598719000001</v>
+        <v>27588.249299999999</v>
       </c>
       <c r="C4">
-        <v>76898.848931999994</v>
+        <v>75262.305552000005</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -34616,11 +34612,11 @@
       </c>
       <c r="B27" cm="1">
         <f t="array" ref="B27:B29">Before!E68:E70</f>
-        <v>1341.555703</v>
+        <v>1312.74011</v>
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27:C29">After!E68:E70</f>
-        <v>9246.0854139999992</v>
+        <v>9074.8692780000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -34628,10 +34624,10 @@
         <v>1024</v>
       </c>
       <c r="B28">
-        <v>4601.7085800000004</v>
+        <v>4750.1919470000003</v>
       </c>
       <c r="C28">
-        <v>31970.677249</v>
+        <v>31467.210347</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -34639,10 +34635,10 @@
         <v>1048576</v>
       </c>
       <c r="B29">
-        <v>4623.7864929999996</v>
+        <v>4582.6967750000003</v>
       </c>
       <c r="C29">
-        <v>37384.514384000002</v>
+        <v>31387.361755000002</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -34662,11 +34658,11 @@
       </c>
       <c r="B54" cm="1">
         <f t="array" ref="B54:B56">Before!E71:E73</f>
-        <v>3.3029999999999999E-3</v>
+        <v>3.1900000000000001E-3</v>
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54:C56">After!E71:E73</f>
-        <v>9.5951090000000008</v>
+        <v>9.3821860000000008</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -34674,10 +34670,10 @@
         <v>1024</v>
       </c>
       <c r="B55">
-        <v>2.6283000000000001E-2</v>
+        <v>2.5416000000000001E-2</v>
       </c>
       <c r="C55">
-        <v>16.730474999999998</v>
+        <v>16.575046</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -34685,10 +34681,10 @@
         <v>1048576</v>
       </c>
       <c r="B56">
-        <v>4.3850790000000002</v>
+        <v>4.2494079999999999</v>
       </c>
       <c r="C56">
-        <v>18.937021999999999</v>
+        <v>18.432877999999999</v>
       </c>
     </row>
   </sheetData>
@@ -34727,11 +34723,11 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2:B4">Before!E56:E58</f>
-        <v>14983.948764000001</v>
+        <v>14864.024683</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2:C4">After!E56:E58</f>
-        <v>26152.642707999999</v>
+        <v>12863.008438999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -34739,10 +34735,10 @@
         <v>1024</v>
       </c>
       <c r="B3">
-        <v>15100.576370999999</v>
+        <v>14822.564037</v>
       </c>
       <c r="C3">
-        <v>26181.587877000002</v>
+        <v>12827.899955000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -34750,10 +34746,10 @@
         <v>1048576</v>
       </c>
       <c r="B4">
-        <v>15109.948847</v>
+        <v>14693.610927</v>
       </c>
       <c r="C4">
-        <v>26211.324755000001</v>
+        <v>12892.50866</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -34773,11 +34769,11 @@
       </c>
       <c r="B27" cm="1">
         <f t="array" ref="B27:B29">Before!E59:E61</f>
-        <v>994.27099299999998</v>
+        <v>970.03736600000002</v>
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27:C29">After!E59:E61</f>
-        <v>4354.0648499999998</v>
+        <v>1592.0116680000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -34785,10 +34781,10 @@
         <v>1024</v>
       </c>
       <c r="B28">
-        <v>3664.7024059999999</v>
+        <v>3597.0368859999999</v>
       </c>
       <c r="C28">
-        <v>5596.9157770000002</v>
+        <v>3798.8314319999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -34796,10 +34792,10 @@
         <v>1048576</v>
       </c>
       <c r="B29">
-        <v>3659.6294050000001</v>
+        <v>3598.0446999999999</v>
       </c>
       <c r="C29">
-        <v>5596.8673040000003</v>
+        <v>3801.7779569999998</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -34819,11 +34815,11 @@
       </c>
       <c r="B54" cm="1">
         <f t="array" ref="B54:B56">Before!E62:E64</f>
-        <v>3.2859999999999999E-3</v>
+        <v>3.1749999999999999E-3</v>
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54:C56">After!E62:E64</f>
-        <v>16.394285</v>
+        <v>2.2313489999999998</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -34831,10 +34827,10 @@
         <v>1024</v>
       </c>
       <c r="B55">
-        <v>2.6068999999999998E-2</v>
+        <v>2.5257000000000002E-2</v>
       </c>
       <c r="C55">
-        <v>44.612488999999997</v>
+        <v>7.024235</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -34842,10 +34838,10 @@
         <v>1048576</v>
       </c>
       <c r="B56">
-        <v>4.0514039999999998</v>
+        <v>3.9439760000000001</v>
       </c>
       <c r="C56">
-        <v>53.755220999999999</v>
+        <v>9.1511820000000004</v>
       </c>
     </row>
   </sheetData>
@@ -34884,11 +34880,11 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2:B4">Before!E29:E31</f>
-        <v>7871.1877240000003</v>
+        <v>8240.2437410000002</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2:C4">After!E29:E31</f>
-        <v>9898.7565990000003</v>
+        <v>9704.8327229999995</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -34896,10 +34892,10 @@
         <v>1024</v>
       </c>
       <c r="B3">
-        <v>9016.1495680000007</v>
+        <v>8586.1679050000002</v>
       </c>
       <c r="C3">
-        <v>13033.516439999999</v>
+        <v>11029.532383</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -34907,10 +34903,10 @@
         <v>1048576</v>
       </c>
       <c r="B4">
-        <v>9721.58295</v>
+        <v>9984.379766</v>
       </c>
       <c r="C4">
-        <v>12726.913707</v>
+        <v>13358.335376999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -34930,11 +34926,11 @@
       </c>
       <c r="B27" cm="1">
         <f t="array" ref="B27:B29">Before!E32:E34</f>
-        <v>914.71508400000005</v>
+        <v>898.75881900000002</v>
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27:C29">After!E32:E34</f>
-        <v>1140.843359</v>
+        <v>1113.968298</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -34942,10 +34938,10 @@
         <v>1024</v>
       </c>
       <c r="B28">
-        <v>1595.1993339999999</v>
+        <v>1560.5050650000001</v>
       </c>
       <c r="C28">
-        <v>2436.32089</v>
+        <v>2202.8291279999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -34953,10 +34949,10 @@
         <v>1048576</v>
       </c>
       <c r="B29">
-        <v>1623.0882449999999</v>
+        <v>1565.021855</v>
       </c>
       <c r="C29">
-        <v>2384.9378550000001</v>
+        <v>2430.290407</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -34976,11 +34972,11 @@
       </c>
       <c r="B54" cm="1">
         <f t="array" ref="B54:B56">Before!E35:E37</f>
-        <v>0.93372900000000003</v>
+        <v>0.89756899999999995</v>
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54:C56">After!E35:E37</f>
-        <v>0.92348799999999998</v>
+        <v>1.100468</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -34988,10 +34984,10 @@
         <v>1024</v>
       </c>
       <c r="B55">
-        <v>0.95836100000000002</v>
+        <v>1.1555359999999999</v>
       </c>
       <c r="C55">
-        <v>1.506772</v>
+        <v>1.1294960000000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -34999,10 +34995,10 @@
         <v>1048576</v>
       </c>
       <c r="B56">
-        <v>1.220116</v>
+        <v>1.1883060000000001</v>
       </c>
       <c r="C56">
-        <v>1.5558460000000001</v>
+        <v>1.5233840000000001</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -35022,11 +35018,11 @@
       </c>
       <c r="B81" cm="1">
         <f t="array" ref="B81:B83">Before!E38:E40</f>
-        <v>7773.3207519999996</v>
+        <v>8011.857763</v>
       </c>
       <c r="C81" cm="1">
         <f t="array" ref="C81:C83">After!E38:E40</f>
-        <v>10910.648041</v>
+        <v>10682.862836</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -35034,10 +35030,10 @@
         <v>1024</v>
       </c>
       <c r="B82">
-        <v>9603.1352430000006</v>
+        <v>9770.4576259999994</v>
       </c>
       <c r="C82">
-        <v>13768.191564000001</v>
+        <v>13629.020643</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -35045,10 +35041,10 @@
         <v>1048576</v>
       </c>
       <c r="B83">
-        <v>10700.516559</v>
+        <v>10254.563007999999</v>
       </c>
       <c r="C83">
-        <v>14488.760335999999</v>
+        <v>14258.637017999999</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -35068,11 +35064,11 @@
       </c>
       <c r="B106" cm="1">
         <f t="array" ref="B106:B108">Before!E41:E43</f>
-        <v>828.57528500000001</v>
+        <v>811.13703399999997</v>
       </c>
       <c r="C106" cm="1">
         <f t="array" ref="C106:C108">After!E41:E43</f>
-        <v>1127.936508</v>
+        <v>1082.6148069999999</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -35080,10 +35076,10 @@
         <v>1024</v>
       </c>
       <c r="B107">
-        <v>1743.981706</v>
+        <v>1716.2548859999999</v>
       </c>
       <c r="C107">
-        <v>2725.897782</v>
+        <v>2644.3706809999999</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -35091,10 +35087,10 @@
         <v>1048576</v>
       </c>
       <c r="B108">
-        <v>1791.5436890000001</v>
+        <v>1738.764842</v>
       </c>
       <c r="C108">
-        <v>2795.3809660000002</v>
+        <v>2726.432624</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -35114,11 +35110,11 @@
       </c>
       <c r="B131" cm="1">
         <f t="array" ref="B131:B133">Before!E44:E46</f>
-        <v>0.98898799999999998</v>
+        <v>0.96645099999999995</v>
       </c>
       <c r="C131" cm="1">
         <f t="array" ref="C131:C133">After!E44:E46</f>
-        <v>1.10782</v>
+        <v>1.0720240000000001</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -35126,10 +35122,10 @@
         <v>1024</v>
       </c>
       <c r="B132">
-        <v>1.1773929999999999</v>
+        <v>1.1431819999999999</v>
       </c>
       <c r="C132">
-        <v>1.4994080000000001</v>
+        <v>1.46831</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -35137,10 +35133,10 @@
         <v>1048576</v>
       </c>
       <c r="B133">
-        <v>1.2129650000000001</v>
+        <v>1.188286</v>
       </c>
       <c r="C133">
-        <v>1.404406</v>
+        <v>1.7119740000000001</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -35160,11 +35156,11 @@
       </c>
       <c r="B155" cm="1">
         <f t="array" ref="B155:B157">Before!E47:E49</f>
-        <v>7934.0079519999999</v>
+        <v>7832.6453149999998</v>
       </c>
       <c r="C155" cm="1">
         <f t="array" ref="C155:C157">After!E47:E49</f>
-        <v>10183.045795</v>
+        <v>9850.5669809999999</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -35172,10 +35168,10 @@
         <v>1024</v>
       </c>
       <c r="B156">
-        <v>9089.3105410000007</v>
+        <v>8883.7356949999994</v>
       </c>
       <c r="C156">
-        <v>12091.705583999999</v>
+        <v>11774.224635</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -35183,10 +35179,10 @@
         <v>1048576</v>
       </c>
       <c r="B157">
-        <v>8908.6521269999994</v>
+        <v>8515.2339940000002</v>
       </c>
       <c r="C157">
-        <v>10800.400675999999</v>
+        <v>10951.887622</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -35206,11 +35202,11 @@
       </c>
       <c r="B180" cm="1">
         <f t="array" ref="B180:B182">Before!E50:E52</f>
-        <v>1241.7321280000001</v>
+        <v>1183.227537</v>
       </c>
       <c r="C180" cm="1">
         <f t="array" ref="C180:C182">After!E50:E52</f>
-        <v>1576.0500320000001</v>
+        <v>1542.7691809999999</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -35218,10 +35214,10 @@
         <v>1024</v>
       </c>
       <c r="B181">
-        <v>1699.979331</v>
+        <v>1662.937195</v>
       </c>
       <c r="C181">
-        <v>2406.0923130000001</v>
+        <v>2340.2334540000002</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -35229,10 +35225,10 @@
         <v>1048576</v>
       </c>
       <c r="B182">
-        <v>1622.2104629999999</v>
+        <v>1569.8472790000001</v>
       </c>
       <c r="C182">
-        <v>2209.648326</v>
+        <v>2162.6021599999999</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -35252,11 +35248,11 @@
       </c>
       <c r="B205" cm="1">
         <f t="array" ref="B205:B207">Before!E53:E55</f>
-        <v>1.261547</v>
+        <v>1.234167</v>
       </c>
       <c r="C205" cm="1">
         <f t="array" ref="C205:C207">After!E53:E55</f>
-        <v>1.607138</v>
+        <v>1.58117</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -35264,10 +35260,10 @@
         <v>1024</v>
       </c>
       <c r="B206">
-        <v>1.718631</v>
+        <v>1.6801459999999999</v>
       </c>
       <c r="C206">
-        <v>2.4753319999999999</v>
+        <v>2.4195440000000001</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -35275,10 +35271,10 @@
         <v>1048576</v>
       </c>
       <c r="B207">
-        <v>1.4951159999999999</v>
+        <v>1.4682770000000001</v>
       </c>
       <c r="C207">
-        <v>2.0408729999999999</v>
+        <v>2.0014150000000002</v>
       </c>
     </row>
   </sheetData>
@@ -35291,7 +35287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80947E4-A634-0D45-83DF-3F004E45D697}">
   <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
@@ -35317,11 +35313,11 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2:B4">Before!E2:E4</f>
-        <v>6425.012487</v>
+        <v>5800.4288070000002</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2:C4">After!E2:E4</f>
-        <v>3039.0435659999998</v>
+        <v>2993.234915</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -35329,10 +35325,10 @@
         <v>1024</v>
       </c>
       <c r="B3">
-        <v>7436.0350600000002</v>
+        <v>6528.4039460000004</v>
       </c>
       <c r="C3">
-        <v>3118.1113989999999</v>
+        <v>3090.0894400000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -35340,10 +35336,10 @@
         <v>1048576</v>
       </c>
       <c r="B4">
-        <v>6776.6191179999996</v>
+        <v>7002.6859320000003</v>
       </c>
       <c r="C4">
-        <v>3270.088827</v>
+        <v>2940.8542769999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -35363,11 +35359,11 @@
       </c>
       <c r="B27" cm="1">
         <f t="array" ref="B27:B29">Before!E5:E7</f>
-        <v>841.90092800000002</v>
+        <v>834.85456799999997</v>
       </c>
       <c r="C27" cm="1">
         <f t="array" ref="C27:C29">After!E5:E7</f>
-        <v>396.32670200000001</v>
+        <v>388.67430400000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -35375,10 +35371,10 @@
         <v>1024</v>
       </c>
       <c r="B28">
-        <v>1297.216664</v>
+        <v>1367.043966</v>
       </c>
       <c r="C28">
-        <v>424.65714000000003</v>
+        <v>409.99613799999997</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -35386,10 +35382,10 @@
         <v>1048576</v>
       </c>
       <c r="B29">
-        <v>1451.3684519999999</v>
+        <v>1401.5203059999999</v>
       </c>
       <c r="C29">
-        <v>410.71406100000002</v>
+        <v>390.97441099999998</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -35409,11 +35405,11 @@
       </c>
       <c r="B54" cm="1">
         <f t="array" ref="B54:B56">Before!E8:E10</f>
-        <v>0.87722800000000001</v>
+        <v>0.88785899999999995</v>
       </c>
       <c r="C54" cm="1">
         <f t="array" ref="C54:C56">After!E8:E10</f>
-        <v>0.38439099999999998</v>
+        <v>0.37304300000000001</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -35421,10 +35417,10 @@
         <v>1024</v>
       </c>
       <c r="B55">
-        <v>0.94374800000000003</v>
+        <v>0.92611500000000002</v>
       </c>
       <c r="C55">
-        <v>0.41846299999999997</v>
+        <v>0.41009099999999998</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -35432,10 +35428,10 @@
         <v>1048576</v>
       </c>
       <c r="B56">
-        <v>1.194407</v>
+        <v>1.1690339999999999</v>
       </c>
       <c r="C56">
-        <v>0.37349199999999999</v>
+        <v>0.40872000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -35455,11 +35451,11 @@
       </c>
       <c r="B81" cm="1">
         <f t="array" ref="B81:B83">Before!E11:E13</f>
-        <v>6232.4662390000003</v>
+        <v>6294.0599670000001</v>
       </c>
       <c r="C81" cm="1">
         <f t="array" ref="C81:C83">After!E11:E13</f>
-        <v>3127.91329</v>
+        <v>3078.1784710000002</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -35467,10 +35463,10 @@
         <v>1024</v>
       </c>
       <c r="B82">
-        <v>7717.3373019999999</v>
+        <v>6964.0888400000003</v>
       </c>
       <c r="C82">
-        <v>3313.8433209999998</v>
+        <v>3299.8247200000001</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -35478,10 +35474,10 @@
         <v>1048576</v>
       </c>
       <c r="B83">
-        <v>7428.4642750000003</v>
+        <v>7327.2149300000001</v>
       </c>
       <c r="C83">
-        <v>3087.0589639999998</v>
+        <v>3455.8642239999999</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -35501,11 +35497,11 @@
       </c>
       <c r="B106" cm="1">
         <f t="array" ref="B106:B108">Before!E14:E16</f>
-        <v>836.07074799999998</v>
+        <v>830.09532899999999</v>
       </c>
       <c r="C106" cm="1">
         <f t="array" ref="C106:C108">After!E14:E16</f>
-        <v>408.626104</v>
+        <v>399.99897600000003</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -35513,10 +35509,10 @@
         <v>1024</v>
       </c>
       <c r="B107">
-        <v>1499.2113320000001</v>
+        <v>1480.602261</v>
       </c>
       <c r="C107">
-        <v>429.55474199999998</v>
+        <v>431.66757200000001</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -35524,10 +35520,10 @@
         <v>1048576</v>
       </c>
       <c r="B108">
-        <v>1551.9566970000001</v>
+        <v>1513.1369440000001</v>
       </c>
       <c r="C108">
-        <v>475.79396400000002</v>
+        <v>433.14147800000001</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -35547,11 +35543,11 @@
       </c>
       <c r="B131" cm="1">
         <f t="array" ref="B131:B133">Before!E17:E19</f>
-        <v>0.97424900000000003</v>
+        <v>0.94400700000000004</v>
       </c>
       <c r="C131" cm="1">
         <f t="array" ref="C131:C133">After!E17:E19</f>
-        <v>0.40343000000000001</v>
+        <v>0.38991599999999998</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -35559,10 +35555,10 @@
         <v>1024</v>
       </c>
       <c r="B132">
-        <v>1.155707</v>
+        <v>1.134417</v>
       </c>
       <c r="C132">
-        <v>0.42144900000000002</v>
+        <v>0.41449599999999998</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -35570,10 +35566,10 @@
         <v>1048576</v>
       </c>
       <c r="B133">
-        <v>1.2731250000000001</v>
+        <v>1.1606399999999999</v>
       </c>
       <c r="C133">
-        <v>0.44780900000000001</v>
+        <v>0.37676799999999999</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -35593,11 +35589,11 @@
       </c>
       <c r="B155" cm="1">
         <f t="array" ref="B155:B157">Before!E20:E22</f>
-        <v>6265.4656420000001</v>
+        <v>5975.6109059999999</v>
       </c>
       <c r="C155" cm="1">
         <f t="array" ref="C155:C157">After!E20:E22</f>
-        <v>3442.3715649999999</v>
+        <v>3379.319336</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -35605,10 +35601,10 @@
         <v>1024</v>
       </c>
       <c r="B156">
-        <v>6705.7831340000002</v>
+        <v>6759.8452989999996</v>
       </c>
       <c r="C156">
-        <v>3380.3027470000002</v>
+        <v>3351.2192839999998</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -35616,10 +35612,10 @@
         <v>1048576</v>
       </c>
       <c r="B157">
-        <v>6515.4049240000004</v>
+        <v>6417.1004999999996</v>
       </c>
       <c r="C157">
-        <v>3454.4936010000001</v>
+        <v>3483.1853780000001</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -35639,11 +35635,11 @@
       </c>
       <c r="B180" cm="1">
         <f t="array" ref="B180:B182">Before!E23:E25</f>
-        <v>1119.5561479999999</v>
+        <v>1093.098432</v>
       </c>
       <c r="C180" cm="1">
         <f t="array" ref="C180:C182">After!E23:E25</f>
-        <v>445.05146300000001</v>
+        <v>439.13207199999999</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -35651,10 +35647,10 @@
         <v>1024</v>
       </c>
       <c r="B181">
-        <v>1488.7641719999999</v>
+        <v>1468.919572</v>
       </c>
       <c r="C181">
-        <v>464.441441</v>
+        <v>456.56125600000001</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -35662,10 +35658,10 @@
         <v>1048576</v>
       </c>
       <c r="B182">
-        <v>1419.418263</v>
+        <v>1393.1796449999999</v>
       </c>
       <c r="C182">
-        <v>453.98715399999998</v>
+        <v>445.23671000000002</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -35685,11 +35681,11 @@
       </c>
       <c r="B205" cm="1">
         <f t="array" ref="B205:B207">Before!E26:E28</f>
-        <v>1.2310289999999999</v>
+        <v>1.2052890000000001</v>
       </c>
       <c r="C205" cm="1">
         <f t="array" ref="C205:C207">After!E26:E28</f>
-        <v>0.44334699999999999</v>
+        <v>0.43423899999999999</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -35697,10 +35693,10 @@
         <v>1024</v>
       </c>
       <c r="B206">
-        <v>1.664409</v>
+        <v>1.633205</v>
       </c>
       <c r="C206">
-        <v>0.43839699999999998</v>
+        <v>0.432006</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -35708,10 +35704,10 @@
         <v>1048576</v>
       </c>
       <c r="B207">
-        <v>1.460877</v>
+        <v>1.4264889999999999</v>
       </c>
       <c r="C207">
-        <v>0.47221999999999997</v>
+        <v>0.46371299999999999</v>
       </c>
     </row>
   </sheetData>
@@ -35724,7 +35720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A1F8EF-5F6B-EB42-A2DA-13FCCCA3EB44}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -35751,15 +35747,15 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2:B10">After!E29:E37</f>
-        <v>9898.7565990000003</v>
+        <v>9704.8327229999995</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2:C10">After!E38:E46</f>
-        <v>10910.648041</v>
+        <v>10682.862836</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2:D10">After!E47:E55</f>
-        <v>10183.045795</v>
+        <v>9850.5669809999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -35767,13 +35763,13 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>13033.516439999999</v>
+        <v>11029.532383</v>
       </c>
       <c r="C3">
-        <v>13768.191564000001</v>
+        <v>13629.020643</v>
       </c>
       <c r="D3">
-        <v>12091.705583999999</v>
+        <v>11774.224635</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -35781,13 +35777,13 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>12726.913707</v>
+        <v>13358.335376999999</v>
       </c>
       <c r="C4">
-        <v>14488.760335999999</v>
+        <v>14258.637017999999</v>
       </c>
       <c r="D4">
-        <v>10800.400675999999</v>
+        <v>10951.887622</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -35795,13 +35791,13 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>1140.843359</v>
+        <v>1113.968298</v>
       </c>
       <c r="C5">
-        <v>1127.936508</v>
+        <v>1082.6148069999999</v>
       </c>
       <c r="D5">
-        <v>1576.0500320000001</v>
+        <v>1542.7691809999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -35809,13 +35805,13 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>2436.32089</v>
+        <v>2202.8291279999999</v>
       </c>
       <c r="C6">
-        <v>2725.897782</v>
+        <v>2644.3706809999999</v>
       </c>
       <c r="D6">
-        <v>2406.0923130000001</v>
+        <v>2340.2334540000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -35823,13 +35819,13 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>2384.9378550000001</v>
+        <v>2430.290407</v>
       </c>
       <c r="C7">
-        <v>2795.3809660000002</v>
+        <v>2726.432624</v>
       </c>
       <c r="D7">
-        <v>2209.648326</v>
+        <v>2162.6021599999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -35837,13 +35833,13 @@
         <v>29</v>
       </c>
       <c r="B8">
-        <v>0.92348799999999998</v>
+        <v>1.100468</v>
       </c>
       <c r="C8">
-        <v>1.10782</v>
+        <v>1.0720240000000001</v>
       </c>
       <c r="D8">
-        <v>1.607138</v>
+        <v>1.58117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -35851,13 +35847,13 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>1.506772</v>
+        <v>1.1294960000000001</v>
       </c>
       <c r="C9">
-        <v>1.4994080000000001</v>
+        <v>1.46831</v>
       </c>
       <c r="D9">
-        <v>2.4753319999999999</v>
+        <v>2.4195440000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -35865,13 +35861,13 @@
         <v>31</v>
       </c>
       <c r="B10">
-        <v>1.5558460000000001</v>
+        <v>1.5233840000000001</v>
       </c>
       <c r="C10">
-        <v>1.404406</v>
+        <v>1.7119740000000001</v>
       </c>
       <c r="D10">
-        <v>2.0408729999999999</v>
+        <v>2.0014150000000002</v>
       </c>
     </row>
   </sheetData>
